--- a/EF_data/reEFs.xlsx
+++ b/EF_data/reEFs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Equity_Research_EF\Equity-Research-EF\EF_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4423A4-2408-489F-908E-DBF4F9791404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D533DD-A231-44E3-B380-2133D2EB1FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.37115151515151518</v>
+        <v>0.30929292929292929</v>
       </c>
       <c r="C2">
         <v>0.25904897090134849</v>
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.98333333333333328</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="C3">
         <v>0.1676829268292683</v>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.2674545454545454</v>
+        <v>1.0562121212121212</v>
       </c>
       <c r="C4">
         <v>0.32072593577658703</v>
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.96453333333333335</v>
+        <v>0.80377777777777781</v>
       </c>
       <c r="C5">
         <v>0.23894747025249105</v>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.22893347412882786</v>
+        <v>0.19077789510735654</v>
       </c>
       <c r="C6">
         <v>0.18651362984218076</v>
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.5147826086956522</v>
+        <v>1.2623188405797101</v>
       </c>
       <c r="C7">
         <v>0.46119235095613048</v>
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.38400000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="C8">
         <v>0.16265147143681477</v>
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.68034782608695654</v>
+        <v>0.56695652173913047</v>
       </c>
       <c r="C9">
         <v>0.30278422273781902</v>
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.74501347708894883</v>
+        <v>0.62084456424079071</v>
       </c>
       <c r="C10">
         <v>0.91851154027319826</v>
@@ -558,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.2467692307692309</v>
+        <v>1.038974358974359</v>
       </c>
       <c r="C11">
         <v>0.35952142394059061</v>
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.18973684210526315</v>
+        <v>0.15811403508771929</v>
       </c>
       <c r="C12">
         <v>0.4056291390728477</v>
@@ -586,7 +586,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.69959999999999989</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="C13">
         <v>0.38333333333333336</v>
@@ -600,7 +600,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.52888888888888885</v>
+        <v>0.44074074074074071</v>
       </c>
       <c r="C14">
         <v>0.35500878734622143</v>
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.3103448275862069</v>
+        <v>2.7586206896551726</v>
       </c>
       <c r="C15">
         <v>1.2857142857142858</v>

--- a/EF_data/reEFs.xlsx
+++ b/EF_data/reEFs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Equity_Research_EF\Equity-Research-EF\EF_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D533DD-A231-44E3-B380-2133D2EB1FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AC7DBC-5107-469B-A9AE-A6C8192A5227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/EF_data/reEFs.xlsx
+++ b/EF_data/reEFs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Equity_Research_EF\Equity-Research-EF\EF_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AC7DBC-5107-469B-A9AE-A6C8192A5227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB491D6-4A8C-4402-8E0A-42201597C76B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>State</t>
   </si>
@@ -84,10 +84,13 @@
     <t>PV O&amp;M EF</t>
   </si>
   <si>
-    <t>WT Total EF</t>
-  </si>
-  <si>
     <t>PV Con/Instl EF</t>
+  </si>
+  <si>
+    <t>WT Con/Instl EF</t>
+  </si>
+  <si>
+    <t>WT O&amp;M EF</t>
   </si>
 </sst>
 </file>
@@ -405,29 +408,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -438,10 +444,13 @@
         <v>0.25904897090134849</v>
       </c>
       <c r="D2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -452,10 +461,13 @@
         <v>0.1676829268292683</v>
       </c>
       <c r="D3">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -466,10 +478,13 @@
         <v>0.32072593577658703</v>
       </c>
       <c r="D4">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -480,10 +495,13 @@
         <v>0.23894747025249105</v>
       </c>
       <c r="D5">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -494,10 +512,13 @@
         <v>0.18651362984218076</v>
       </c>
       <c r="D6">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -508,10 +529,13 @@
         <v>0.46119235095613048</v>
       </c>
       <c r="D7">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -522,10 +546,13 @@
         <v>0.16265147143681477</v>
       </c>
       <c r="D8">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -536,10 +563,13 @@
         <v>0.30278422273781902</v>
       </c>
       <c r="D9">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -550,10 +580,13 @@
         <v>0.91851154027319826</v>
       </c>
       <c r="D10">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -564,10 +597,13 @@
         <v>0.35952142394059061</v>
       </c>
       <c r="D11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -578,10 +614,13 @@
         <v>0.4056291390728477</v>
       </c>
       <c r="D12">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -592,10 +631,13 @@
         <v>0.38333333333333336</v>
       </c>
       <c r="D13">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -606,10 +648,13 @@
         <v>0.35500878734622143</v>
       </c>
       <c r="D14">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -620,7 +665,10 @@
         <v>1.2857142857142858</v>
       </c>
       <c r="D15">
-        <v>1.1000000000000001</v>
+        <v>0.24</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/EF_data/reEFs.xlsx
+++ b/EF_data/reEFs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Equity_Research_EF\Equity-Research-EF\EF_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB491D6-4A8C-4402-8E0A-42201597C76B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C408C689-AA73-4C1C-B2E3-804F1A34F551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>State</t>
   </si>
@@ -91,6 +91,108 @@
   </si>
   <si>
     <t>WT O&amp;M EF</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
   </si>
 </sst>
 </file>
@@ -408,13 +510,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -435,13 +541,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>0.30929292929292929</v>
+        <v>3.8</v>
       </c>
       <c r="C2">
-        <v>0.25904897090134849</v>
+        <v>0.13928571428571429</v>
       </c>
       <c r="D2">
         <v>0.24</v>
@@ -452,13 +558,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>0.81944444444444442</v>
+        <v>0.13143859649122808</v>
       </c>
       <c r="C3">
-        <v>0.1676829268292683</v>
+        <v>0.12964006763829616</v>
       </c>
       <c r="D3">
         <v>0.24</v>
@@ -469,13 +575,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>1.0562121212121212</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C4">
-        <v>0.32072593577658703</v>
+        <v>0.14420686225758331</v>
       </c>
       <c r="D4">
         <v>0.24</v>
@@ -486,13 +592,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>0.80377777777777781</v>
+        <v>0.50937704918032789</v>
       </c>
       <c r="C5">
-        <v>0.23894747025249105</v>
+        <v>0.10617141917988331</v>
       </c>
       <c r="D5">
         <v>0.24</v>
@@ -503,13 +609,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>0.19077789510735654</v>
+        <v>0.77162790697674422</v>
       </c>
       <c r="C6">
-        <v>0.18651362984218076</v>
+        <v>0.30086081990965652</v>
       </c>
       <c r="D6">
         <v>0.24</v>
@@ -520,13 +626,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1.2623188405797101</v>
+        <v>0.30019607843137253</v>
       </c>
       <c r="C7">
-        <v>0.46119235095613048</v>
+        <v>0.26136770497672751</v>
       </c>
       <c r="D7">
         <v>0.24</v>
@@ -537,13 +643,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0.32</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="C8">
-        <v>0.16265147143681477</v>
+        <v>0.16845329249617153</v>
       </c>
       <c r="D8">
         <v>0.24</v>
@@ -554,13 +660,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>0.56695652173913047</v>
+        <v>0.24226666666666666</v>
       </c>
       <c r="C9">
-        <v>0.30278422273781902</v>
+        <v>0.29960666164532596</v>
       </c>
       <c r="D9">
         <v>0.24</v>
@@ -571,13 +677,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>0.62084456424079071</v>
+        <v>0.10163809523809524</v>
       </c>
       <c r="C10">
-        <v>0.91851154027319826</v>
+        <v>7.0899931587785306E-2</v>
       </c>
       <c r="D10">
         <v>0.24</v>
@@ -588,13 +694,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>1.038974358974359</v>
+        <v>0.39466666666666667</v>
       </c>
       <c r="C11">
-        <v>0.35952142394059061</v>
+        <v>7.8393881453154873E-2</v>
       </c>
       <c r="D11">
         <v>0.24</v>
@@ -605,13 +711,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>0.15811403508771929</v>
+        <v>1.1406349206349207</v>
       </c>
       <c r="C12">
-        <v>0.4056291390728477</v>
+        <v>3.0072463768115942</v>
       </c>
       <c r="D12">
         <v>0.24</v>
@@ -622,13 +728,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>0.58299999999999996</v>
+        <v>1.2622222222222221</v>
       </c>
       <c r="C13">
-        <v>0.38333333333333336</v>
+        <v>0.33003300330033003</v>
       </c>
       <c r="D13">
         <v>0.24</v>
@@ -639,13 +745,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>0.44074074074074071</v>
+        <v>0.64111111111111108</v>
       </c>
       <c r="C14">
-        <v>0.35500878734622143</v>
+        <v>0.52465897166841557</v>
       </c>
       <c r="D14">
         <v>0.24</v>
@@ -656,18 +762,596 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>0.93185185185185182</v>
+      </c>
+      <c r="C15">
+        <v>2.598425196850394</v>
+      </c>
+      <c r="D15">
+        <v>0.24</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>5.5944444444444441</v>
+      </c>
+      <c r="C16">
+        <v>1.2842105263157895</v>
+      </c>
+      <c r="D16">
+        <v>0.24</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>10.558333333333334</v>
+      </c>
+      <c r="C17">
+        <v>1.5924170616113744</v>
+      </c>
+      <c r="D17">
+        <v>0.24</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0.9508771929824561</v>
+      </c>
+      <c r="C18">
+        <v>0.19202363367799113</v>
+      </c>
+      <c r="D18">
+        <v>0.24</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.75354166666666667</v>
+      </c>
+      <c r="C19">
+        <v>0.24010887527947894</v>
+      </c>
+      <c r="D19">
+        <v>0.24</v>
+      </c>
+      <c r="E19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1.0327407407407407</v>
+      </c>
+      <c r="C20">
+        <v>0.31885523194773885</v>
+      </c>
+      <c r="D20">
+        <v>0.24</v>
+      </c>
+      <c r="E20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>2.7255555555555557</v>
+      </c>
+      <c r="C21">
+        <v>1.2079615648593001</v>
+      </c>
+      <c r="D21">
+        <v>0.24</v>
+      </c>
+      <c r="E21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>0.41138888888888892</v>
+      </c>
+      <c r="C22">
+        <v>0.12646655492914827</v>
+      </c>
+      <c r="D22">
+        <v>0.24</v>
+      </c>
+      <c r="E22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>3.4533333333333331</v>
+      </c>
+      <c r="C23">
+        <v>0.13147082990961381</v>
+      </c>
+      <c r="D23">
+        <v>0.24</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>1.1418181818181818</v>
+      </c>
+      <c r="C24">
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="D24">
+        <v>0.24</v>
+      </c>
+      <c r="E24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>0.12407407407407407</v>
+      </c>
+      <c r="C25">
+        <v>0.44014084507042256</v>
+      </c>
+      <c r="D25">
+        <v>0.24</v>
+      </c>
+      <c r="E25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>2.2133333333333334</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0.24</v>
+      </c>
+      <c r="E26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="C27">
+        <v>9.6179012793385407E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.24</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1.1840579710144927</v>
+      </c>
+      <c r="C28">
+        <v>0.46119235095613048</v>
+      </c>
+      <c r="D28">
+        <v>0.24</v>
+      </c>
+      <c r="E28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>3.1288888888888891</v>
+      </c>
+      <c r="C29">
+        <v>0.16287823946720717</v>
+      </c>
+      <c r="D29">
+        <v>0.24</v>
+      </c>
+      <c r="E29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>0.29705882352941176</v>
+      </c>
+      <c r="C30">
+        <v>0.17517704062616474</v>
+      </c>
+      <c r="D30">
+        <v>0.24</v>
+      </c>
+      <c r="E30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>0.56695652173913047</v>
+      </c>
+      <c r="C31">
+        <v>0.30271398747390393</v>
+      </c>
+      <c r="D31">
+        <v>0.24</v>
+      </c>
+      <c r="E31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>0.13603508771929826</v>
+      </c>
+      <c r="C32">
+        <v>7.1458121779683331E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.24</v>
+      </c>
+      <c r="E32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="C33">
+        <v>32.352941176470587</v>
+      </c>
+      <c r="D33">
+        <v>0.24</v>
+      </c>
+      <c r="E33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>2.6576923076923076</v>
+      </c>
+      <c r="C34">
+        <v>0.94522539990305376</v>
+      </c>
+      <c r="D34">
+        <v>0.24</v>
+      </c>
+      <c r="E34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>8.3833333333333329</v>
+      </c>
+      <c r="C35">
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="D35">
+        <v>0.24</v>
+      </c>
+      <c r="E35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0.54897435897435898</v>
+      </c>
+      <c r="C36">
+        <v>6.0025957170668401E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.24</v>
+      </c>
+      <c r="E36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>1.038974358974359</v>
+      </c>
+      <c r="C37">
+        <v>0.35430098158796541</v>
+      </c>
+      <c r="D37">
+        <v>0.24</v>
+      </c>
+      <c r="E37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>0.15505376344086022</v>
+      </c>
+      <c r="C38">
+        <v>0.38950715421303655</v>
+      </c>
+      <c r="D38">
+        <v>0.24</v>
+      </c>
+      <c r="E38">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>0.15993464052287582</v>
+      </c>
+      <c r="C39">
+        <v>0.24032648125755743</v>
+      </c>
+      <c r="D39">
+        <v>0.24</v>
+      </c>
+      <c r="E39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>69.333333333333329</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>0.24</v>
+      </c>
+      <c r="E40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>0.94722222222222219</v>
+      </c>
+      <c r="C41">
+        <v>0.37023324694557569</v>
+      </c>
+      <c r="D41">
+        <v>0.24</v>
+      </c>
+      <c r="E41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>0.12992592592592592</v>
+      </c>
+      <c r="C42">
+        <v>0.18092876767406019</v>
+      </c>
+      <c r="D42">
+        <v>0.24</v>
+      </c>
+      <c r="E42">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <v>1.9076666666666666</v>
+      </c>
+      <c r="C43">
+        <v>0.10627678938406436</v>
+      </c>
+      <c r="D43">
+        <v>0.24</v>
+      </c>
+      <c r="E43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>0.42198581560283688</v>
+      </c>
+      <c r="C44">
+        <v>0.32371794871794873</v>
+      </c>
+      <c r="D44">
+        <v>0.24</v>
+      </c>
+      <c r="E44">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>0.77733333333333332</v>
+      </c>
+      <c r="C45">
+        <v>0.35608726249120337</v>
+      </c>
+      <c r="D45">
+        <v>0.24</v>
+      </c>
+      <c r="E45">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>2.5057142857142858</v>
+      </c>
+      <c r="C46">
+        <v>1.0648918469217969</v>
+      </c>
+      <c r="D46">
+        <v>0.24</v>
+      </c>
+      <c r="E46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>2.7586206896551726</v>
-      </c>
-      <c r="C15">
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="D15">
-        <v>0.24</v>
-      </c>
-      <c r="E15">
+      <c r="B47">
+        <v>3.0188679245283021</v>
+      </c>
+      <c r="C47">
+        <v>1.3235294117647058</v>
+      </c>
+      <c r="D47">
+        <v>0.24</v>
+      </c>
+      <c r="E47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>1.3348148148148149</v>
+      </c>
+      <c r="C48">
+        <v>0.60509554140127386</v>
+      </c>
+      <c r="D48">
+        <v>0.24</v>
+      </c>
+      <c r="E48">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>1.3222222222222222</v>
+      </c>
+      <c r="C49">
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.24</v>
+      </c>
+      <c r="E49">
         <v>0.3</v>
       </c>
     </row>

--- a/EF_data/reEFs.xlsx
+++ b/EF_data/reEFs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Equity_Research_EF\Equity-Research-EF\EF_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C408C689-AA73-4C1C-B2E3-804F1A34F551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032711D-E8DB-4F6B-93F4-62FED92AFA7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
         <v>0.13928571428571429</v>
       </c>
       <c r="D2">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E2">
         <v>0.3</v>
@@ -567,7 +567,7 @@
         <v>0.12964006763829616</v>
       </c>
       <c r="D3">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E3">
         <v>0.3</v>
@@ -584,7 +584,7 @@
         <v>0.14420686225758331</v>
       </c>
       <c r="D4">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E4">
         <v>0.3</v>
@@ -601,7 +601,7 @@
         <v>0.10617141917988331</v>
       </c>
       <c r="D5">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E5">
         <v>0.3</v>
@@ -618,7 +618,7 @@
         <v>0.30086081990965652</v>
       </c>
       <c r="D6">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E6">
         <v>0.3</v>
@@ -635,7 +635,7 @@
         <v>0.26136770497672751</v>
       </c>
       <c r="D7">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E7">
         <v>0.3</v>
@@ -652,7 +652,7 @@
         <v>0.16845329249617153</v>
       </c>
       <c r="D8">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -669,7 +669,7 @@
         <v>0.29960666164532596</v>
       </c>
       <c r="D9">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E9">
         <v>0.3</v>
@@ -686,7 +686,7 @@
         <v>7.0899931587785306E-2</v>
       </c>
       <c r="D10">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E10">
         <v>0.3</v>
@@ -703,7 +703,7 @@
         <v>7.8393881453154873E-2</v>
       </c>
       <c r="D11">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E11">
         <v>0.3</v>
@@ -720,7 +720,7 @@
         <v>3.0072463768115942</v>
       </c>
       <c r="D12">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E12">
         <v>0.3</v>
@@ -737,7 +737,7 @@
         <v>0.33003300330033003</v>
       </c>
       <c r="D13">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E13">
         <v>0.3</v>
@@ -754,7 +754,7 @@
         <v>0.52465897166841557</v>
       </c>
       <c r="D14">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E14">
         <v>0.3</v>
@@ -771,7 +771,7 @@
         <v>2.598425196850394</v>
       </c>
       <c r="D15">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E15">
         <v>0.3</v>
@@ -788,7 +788,7 @@
         <v>1.2842105263157895</v>
       </c>
       <c r="D16">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E16">
         <v>0.3</v>
@@ -805,7 +805,7 @@
         <v>1.5924170616113744</v>
       </c>
       <c r="D17">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E17">
         <v>0.3</v>
@@ -822,7 +822,7 @@
         <v>0.19202363367799113</v>
       </c>
       <c r="D18">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E18">
         <v>0.3</v>
@@ -839,7 +839,7 @@
         <v>0.24010887527947894</v>
       </c>
       <c r="D19">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E19">
         <v>0.3</v>
@@ -856,7 +856,7 @@
         <v>0.31885523194773885</v>
       </c>
       <c r="D20">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E20">
         <v>0.3</v>
@@ -873,7 +873,7 @@
         <v>1.2079615648593001</v>
       </c>
       <c r="D21">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E21">
         <v>0.3</v>
@@ -890,7 +890,7 @@
         <v>0.12646655492914827</v>
       </c>
       <c r="D22">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E22">
         <v>0.3</v>
@@ -907,7 +907,7 @@
         <v>0.13147082990961381</v>
       </c>
       <c r="D23">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E23">
         <v>0.3</v>
@@ -924,7 +924,7 @@
         <v>0.39473684210526316</v>
       </c>
       <c r="D24">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E24">
         <v>0.3</v>
@@ -941,7 +941,7 @@
         <v>0.44014084507042256</v>
       </c>
       <c r="D25">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E25">
         <v>0.3</v>
@@ -958,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E26">
         <v>0.3</v>
@@ -975,7 +975,7 @@
         <v>9.6179012793385407E-2</v>
       </c>
       <c r="D27">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E27">
         <v>0.3</v>
@@ -992,7 +992,7 @@
         <v>0.46119235095613048</v>
       </c>
       <c r="D28">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E28">
         <v>0.3</v>
@@ -1009,7 +1009,7 @@
         <v>0.16287823946720717</v>
       </c>
       <c r="D29">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E29">
         <v>0.3</v>
@@ -1026,7 +1026,7 @@
         <v>0.17517704062616474</v>
       </c>
       <c r="D30">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E30">
         <v>0.3</v>
@@ -1043,7 +1043,7 @@
         <v>0.30271398747390393</v>
       </c>
       <c r="D31">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E31">
         <v>0.3</v>
@@ -1060,7 +1060,7 @@
         <v>7.1458121779683331E-2</v>
       </c>
       <c r="D32">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E32">
         <v>0.3</v>
@@ -1077,7 +1077,7 @@
         <v>32.352941176470587</v>
       </c>
       <c r="D33">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E33">
         <v>0.3</v>
@@ -1094,7 +1094,7 @@
         <v>0.94522539990305376</v>
       </c>
       <c r="D34">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E34">
         <v>0.3</v>
@@ -1111,7 +1111,7 @@
         <v>0.45454545454545459</v>
       </c>
       <c r="D35">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E35">
         <v>0.3</v>
@@ -1128,7 +1128,7 @@
         <v>6.0025957170668401E-2</v>
       </c>
       <c r="D36">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E36">
         <v>0.3</v>
@@ -1145,7 +1145,7 @@
         <v>0.35430098158796541</v>
       </c>
       <c r="D37">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E37">
         <v>0.3</v>
@@ -1162,7 +1162,7 @@
         <v>0.38950715421303655</v>
       </c>
       <c r="D38">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E38">
         <v>0.3</v>
@@ -1179,7 +1179,7 @@
         <v>0.24032648125755743</v>
       </c>
       <c r="D39">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E39">
         <v>0.3</v>
@@ -1196,7 +1196,7 @@
         <v>16</v>
       </c>
       <c r="D40">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E40">
         <v>0.3</v>
@@ -1213,7 +1213,7 @@
         <v>0.37023324694557569</v>
       </c>
       <c r="D41">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E41">
         <v>0.3</v>
@@ -1230,7 +1230,7 @@
         <v>0.18092876767406019</v>
       </c>
       <c r="D42">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E42">
         <v>0.3</v>
@@ -1247,7 +1247,7 @@
         <v>0.10627678938406436</v>
       </c>
       <c r="D43">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E43">
         <v>0.3</v>
@@ -1264,7 +1264,7 @@
         <v>0.32371794871794873</v>
       </c>
       <c r="D44">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E44">
         <v>0.3</v>
@@ -1281,7 +1281,7 @@
         <v>0.35608726249120337</v>
       </c>
       <c r="D45">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E45">
         <v>0.3</v>
@@ -1298,7 +1298,7 @@
         <v>1.0648918469217969</v>
       </c>
       <c r="D46">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E46">
         <v>0.3</v>
@@ -1315,7 +1315,7 @@
         <v>1.3235294117647058</v>
       </c>
       <c r="D47">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E47">
         <v>0.3</v>
@@ -1332,7 +1332,7 @@
         <v>0.60509554140127386</v>
       </c>
       <c r="D48">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E48">
         <v>0.3</v>
@@ -1349,7 +1349,7 @@
         <v>1.834862385321101E-2</v>
       </c>
       <c r="D49">
-        <v>0.24</v>
+        <v>0.128</v>
       </c>
       <c r="E49">
         <v>0.3</v>

--- a/EF_data/reEFs.xlsx
+++ b/EF_data/reEFs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Equity_Research_EF\Equity-Research-EF\EF_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032711D-E8DB-4F6B-93F4-62FED92AFA7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E969F3-A394-4E70-B1BE-0EF5EF983CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7656" yWindow="1968" windowWidth="10860" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D39" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,13 +544,13 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>3.8</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>0.13928571428571429</v>
       </c>
       <c r="D2">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E2">
         <v>0.3</v>
@@ -561,13 +561,13 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>0.13143859649122808</v>
+        <v>3.9431578947368422</v>
       </c>
       <c r="C3">
         <v>0.12964006763829616</v>
       </c>
       <c r="D3">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E3">
         <v>0.3</v>
@@ -578,13 +578,13 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>0.29166666666666669</v>
+        <v>8.75</v>
       </c>
       <c r="C4">
         <v>0.14420686225758331</v>
       </c>
       <c r="D4">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E4">
         <v>0.3</v>
@@ -595,13 +595,13 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>0.50937704918032789</v>
+        <v>15.281311475409836</v>
       </c>
       <c r="C5">
         <v>0.10617141917988331</v>
       </c>
       <c r="D5">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E5">
         <v>0.3</v>
@@ -612,13 +612,13 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>0.77162790697674422</v>
+        <v>23.148837209302325</v>
       </c>
       <c r="C6">
         <v>0.30086081990965652</v>
       </c>
       <c r="D6">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E6">
         <v>0.3</v>
@@ -629,13 +629,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.30019607843137253</v>
+        <v>9.0058823529411764</v>
       </c>
       <c r="C7">
         <v>0.26136770497672751</v>
       </c>
       <c r="D7">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E7">
         <v>0.3</v>
@@ -646,13 +646,13 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.81944444444444442</v>
+        <v>24.583333333333332</v>
       </c>
       <c r="C8">
         <v>0.16845329249617153</v>
       </c>
       <c r="D8">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -663,13 +663,13 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.24226666666666666</v>
+        <v>7.2679999999999998</v>
       </c>
       <c r="C9">
         <v>0.29960666164532596</v>
       </c>
       <c r="D9">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E9">
         <v>0.3</v>
@@ -680,13 +680,13 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.10163809523809524</v>
+        <v>3.0491428571428569</v>
       </c>
       <c r="C10">
         <v>7.0899931587785306E-2</v>
       </c>
       <c r="D10">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E10">
         <v>0.3</v>
@@ -697,13 +697,13 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0.39466666666666667</v>
+        <v>11.84</v>
       </c>
       <c r="C11">
         <v>7.8393881453154873E-2</v>
       </c>
       <c r="D11">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E11">
         <v>0.3</v>
@@ -714,13 +714,13 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>1.1406349206349207</v>
+        <v>34.219047619047622</v>
       </c>
       <c r="C12">
         <v>3.0072463768115942</v>
       </c>
       <c r="D12">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E12">
         <v>0.3</v>
@@ -731,13 +731,13 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>1.2622222222222221</v>
+        <v>37.866666666666667</v>
       </c>
       <c r="C13">
         <v>0.33003300330033003</v>
       </c>
       <c r="D13">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E13">
         <v>0.3</v>
@@ -748,13 +748,13 @@
         <v>29</v>
       </c>
       <c r="B14">
-        <v>0.64111111111111108</v>
+        <v>19.233333333333334</v>
       </c>
       <c r="C14">
         <v>0.52465897166841557</v>
       </c>
       <c r="D14">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E14">
         <v>0.3</v>
@@ -765,13 +765,13 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <v>0.93185185185185182</v>
+        <v>27.955555555555556</v>
       </c>
       <c r="C15">
         <v>2.598425196850394</v>
       </c>
       <c r="D15">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E15">
         <v>0.3</v>
@@ -782,13 +782,13 @@
         <v>31</v>
       </c>
       <c r="B16">
-        <v>5.5944444444444441</v>
+        <v>167.83333333333334</v>
       </c>
       <c r="C16">
         <v>1.2842105263157895</v>
       </c>
       <c r="D16">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E16">
         <v>0.3</v>
@@ -799,13 +799,13 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>10.558333333333334</v>
+        <v>316.75</v>
       </c>
       <c r="C17">
         <v>1.5924170616113744</v>
       </c>
       <c r="D17">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E17">
         <v>0.3</v>
@@ -816,13 +816,13 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.9508771929824561</v>
+        <v>28.526315789473685</v>
       </c>
       <c r="C18">
         <v>0.19202363367799113</v>
       </c>
       <c r="D18">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E18">
         <v>0.3</v>
@@ -833,13 +833,13 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>0.75354166666666667</v>
+        <v>22.606249999999999</v>
       </c>
       <c r="C19">
         <v>0.24010887527947894</v>
       </c>
       <c r="D19">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E19">
         <v>0.3</v>
@@ -850,13 +850,13 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>1.0327407407407407</v>
+        <v>30.982222222222223</v>
       </c>
       <c r="C20">
         <v>0.31885523194773885</v>
       </c>
       <c r="D20">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E20">
         <v>0.3</v>
@@ -867,13 +867,13 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>2.7255555555555557</v>
+        <v>81.766666666666666</v>
       </c>
       <c r="C21">
         <v>1.2079615648593001</v>
       </c>
       <c r="D21">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E21">
         <v>0.3</v>
@@ -884,13 +884,13 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.41138888888888892</v>
+        <v>12.341666666666667</v>
       </c>
       <c r="C22">
         <v>0.12646655492914827</v>
       </c>
       <c r="D22">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E22">
         <v>0.3</v>
@@ -901,13 +901,13 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>3.4533333333333331</v>
+        <v>103.6</v>
       </c>
       <c r="C23">
         <v>0.13147082990961381</v>
       </c>
       <c r="D23">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E23">
         <v>0.3</v>
@@ -918,13 +918,13 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>1.1418181818181818</v>
+        <v>34.254545454545458</v>
       </c>
       <c r="C24">
         <v>0.39473684210526316</v>
       </c>
       <c r="D24">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E24">
         <v>0.3</v>
@@ -935,13 +935,13 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.12407407407407407</v>
+        <v>3.7222222222222223</v>
       </c>
       <c r="C25">
         <v>0.44014084507042256</v>
       </c>
       <c r="D25">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E25">
         <v>0.3</v>
@@ -952,13 +952,13 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>2.2133333333333334</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E26">
         <v>0.3</v>
@@ -969,13 +969,13 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.46450000000000002</v>
+        <v>13.935</v>
       </c>
       <c r="C27">
         <v>9.6179012793385407E-2</v>
       </c>
       <c r="D27">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E27">
         <v>0.3</v>
@@ -986,13 +986,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>1.1840579710144927</v>
+        <v>35.521739130434781</v>
       </c>
       <c r="C28">
         <v>0.46119235095613048</v>
       </c>
       <c r="D28">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E28">
         <v>0.3</v>
@@ -1003,13 +1003,13 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>3.1288888888888891</v>
+        <v>93.86666666666666</v>
       </c>
       <c r="C29">
         <v>0.16287823946720717</v>
       </c>
       <c r="D29">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E29">
         <v>0.3</v>
@@ -1020,13 +1020,13 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>0.29705882352941176</v>
+        <v>8.9117647058823533</v>
       </c>
       <c r="C30">
         <v>0.17517704062616474</v>
       </c>
       <c r="D30">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E30">
         <v>0.3</v>
@@ -1037,13 +1037,13 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>0.56695652173913047</v>
+        <v>17.008695652173913</v>
       </c>
       <c r="C31">
         <v>0.30271398747390393</v>
       </c>
       <c r="D31">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E31">
         <v>0.3</v>
@@ -1054,13 +1054,13 @@
         <v>41</v>
       </c>
       <c r="B32">
-        <v>0.13603508771929826</v>
+        <v>4.081052631578947</v>
       </c>
       <c r="C32">
         <v>7.1458121779683331E-2</v>
       </c>
       <c r="D32">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E32">
         <v>0.3</v>
@@ -1071,13 +1071,13 @@
         <v>42</v>
       </c>
       <c r="B33">
-        <v>13.333333333333334</v>
+        <v>400</v>
       </c>
       <c r="C33">
         <v>32.352941176470587</v>
       </c>
       <c r="D33">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E33">
         <v>0.3</v>
@@ -1088,13 +1088,13 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>2.6576923076923076</v>
+        <v>79.730769230769226</v>
       </c>
       <c r="C34">
         <v>0.94522539990305376</v>
       </c>
       <c r="D34">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E34">
         <v>0.3</v>
@@ -1105,13 +1105,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>8.3833333333333329</v>
+        <v>251.5</v>
       </c>
       <c r="C35">
         <v>0.45454545454545459</v>
       </c>
       <c r="D35">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E35">
         <v>0.3</v>
@@ -1122,13 +1122,13 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.54897435897435898</v>
+        <v>16.469230769230769</v>
       </c>
       <c r="C36">
         <v>6.0025957170668401E-2</v>
       </c>
       <c r="D36">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E36">
         <v>0.3</v>
@@ -1139,13 +1139,13 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>1.038974358974359</v>
+        <v>31.169230769230769</v>
       </c>
       <c r="C37">
         <v>0.35430098158796541</v>
       </c>
       <c r="D37">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E37">
         <v>0.3</v>
@@ -1156,13 +1156,13 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>0.15505376344086022</v>
+        <v>4.6516129032258062</v>
       </c>
       <c r="C38">
         <v>0.38950715421303655</v>
       </c>
       <c r="D38">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E38">
         <v>0.3</v>
@@ -1173,13 +1173,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.15993464052287582</v>
+        <v>4.7980392156862743</v>
       </c>
       <c r="C39">
         <v>0.24032648125755743</v>
       </c>
       <c r="D39">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E39">
         <v>0.3</v>
@@ -1190,13 +1190,13 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>69.333333333333329</v>
+        <v>2080</v>
       </c>
       <c r="C40">
         <v>16</v>
       </c>
       <c r="D40">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E40">
         <v>0.3</v>
@@ -1207,13 +1207,13 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.94722222222222219</v>
+        <v>28.416666666666668</v>
       </c>
       <c r="C41">
         <v>0.37023324694557569</v>
       </c>
       <c r="D41">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E41">
         <v>0.3</v>
@@ -1224,13 +1224,13 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.12992592592592592</v>
+        <v>3.8977777777777778</v>
       </c>
       <c r="C42">
         <v>0.18092876767406019</v>
       </c>
       <c r="D42">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E42">
         <v>0.3</v>
@@ -1241,13 +1241,13 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>1.9076666666666666</v>
+        <v>57.23</v>
       </c>
       <c r="C43">
         <v>0.10627678938406436</v>
       </c>
       <c r="D43">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E43">
         <v>0.3</v>
@@ -1258,13 +1258,13 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>0.42198581560283688</v>
+        <v>12.659574468085106</v>
       </c>
       <c r="C44">
         <v>0.32371794871794873</v>
       </c>
       <c r="D44">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E44">
         <v>0.3</v>
@@ -1275,13 +1275,13 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>0.77733333333333332</v>
+        <v>23.32</v>
       </c>
       <c r="C45">
         <v>0.35608726249120337</v>
       </c>
       <c r="D45">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E45">
         <v>0.3</v>
@@ -1292,13 +1292,13 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>2.5057142857142858</v>
+        <v>75.171428571428578</v>
       </c>
       <c r="C46">
         <v>1.0648918469217969</v>
       </c>
       <c r="D46">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E46">
         <v>0.3</v>
@@ -1309,13 +1309,13 @@
         <v>14</v>
       </c>
       <c r="B47">
-        <v>3.0188679245283021</v>
+        <v>90.566037735849065</v>
       </c>
       <c r="C47">
         <v>1.3235294117647058</v>
       </c>
       <c r="D47">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E47">
         <v>0.3</v>
@@ -1326,13 +1326,13 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>1.3348148148148149</v>
+        <v>40.044444444444444</v>
       </c>
       <c r="C48">
         <v>0.60509554140127386</v>
       </c>
       <c r="D48">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E48">
         <v>0.3</v>
@@ -1343,13 +1343,13 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>1.3222222222222222</v>
+        <v>39.666666666666664</v>
       </c>
       <c r="C49">
         <v>1.834862385321101E-2</v>
       </c>
       <c r="D49">
-        <v>0.128</v>
+        <v>6.4</v>
       </c>
       <c r="E49">
         <v>0.3</v>
